--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -118,7 +118,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>04/30/2017</t>
+    <t>06/08/2017</t>
   </si>
   <si>
     <t>International Business Partner Income From:</t>
@@ -181,42 +181,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>1/31/2016</t>
-  </si>
-  <si>
-    <t>2/28/2016</t>
-  </si>
-  <si>
-    <t>3/31/2016</t>
-  </si>
-  <si>
-    <t>4/30/2016</t>
-  </si>
-  <si>
-    <t>5/31/2016</t>
-  </si>
-  <si>
-    <t>6/30/2016</t>
-  </si>
-  <si>
-    <t>7/31/2016</t>
-  </si>
-  <si>
-    <t>8/30/2016</t>
-  </si>
-  <si>
-    <t>9/31/2016</t>
-  </si>
-  <si>
-    <t>10/30/2016</t>
-  </si>
-  <si>
-    <t>11/31/2016</t>
-  </si>
-  <si>
-    <t>12/30/2016</t>
-  </si>
-  <si>
     <t>1/31/2017</t>
   </si>
   <si>
@@ -251,6 +215,42 @@
   </si>
   <si>
     <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>1/31/2018</t>
+  </si>
+  <si>
+    <t>2/28/2018</t>
+  </si>
+  <si>
+    <t>3/31/2018</t>
+  </si>
+  <si>
+    <t>4/30/2018</t>
+  </si>
+  <si>
+    <t>5/31/2018</t>
+  </si>
+  <si>
+    <t>6/30/2018</t>
+  </si>
+  <si>
+    <t>7/31/2018</t>
+  </si>
+  <si>
+    <t>8/30/2018</t>
+  </si>
+  <si>
+    <t>9/31/2018</t>
+  </si>
+  <si>
+    <t>10/30/2018</t>
+  </si>
+  <si>
+    <t>11/31/2018</t>
+  </si>
+  <si>
+    <t>12/30/2018</t>
   </si>
   <si>
     <r>
@@ -1947,21 +1947,21 @@
         <v>26</v>
       </c>
       <c r="B12" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>71040</v>
+        <v>68010</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="41">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="G12" s="42" t="str">
         <f>F12</f>
@@ -1995,7 +1995,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2007,14 +2007,14 @@
         <v>27</v>
       </c>
       <c r="B13" s="44">
-        <v>0</v>
+        <v>8186</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>52170</v>
+        <v>79930</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
@@ -2055,7 +2055,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2067,14 +2067,14 @@
         <v>28</v>
       </c>
       <c r="B14" s="44">
-        <v>1480</v>
+        <v>5820</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>22200</v>
+        <v>69140</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2130,21 +2130,21 @@
         <v>29</v>
       </c>
       <c r="B15" s="44">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>70300</v>
+        <v>780</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="44">
-        <v>1520</v>
+        <v>780</v>
       </c>
       <c r="G15" s="45" t="str">
         <f>F15+G14</f>
@@ -2178,7 +2178,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2190,21 +2190,21 @@
         <v>30</v>
       </c>
       <c r="B16" s="44">
-        <v>2960</v>
+        <v>780</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>67340</v>
+        <v>10140</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="44">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G16" s="45" t="str">
         <f>F16+G15</f>
@@ -2238,7 +2238,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2250,21 +2250,21 @@
         <v>31</v>
       </c>
       <c r="B17" s="44">
-        <v>2960</v>
+        <v>12168</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>19980</v>
+        <v>2340</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="44">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="G17" s="45" t="str">
         <f>F17+G16</f>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2313,14 +2313,14 @@
         <v>32</v>
       </c>
       <c r="B18" s="44">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="C18" s="45" t="str">
         <f>C17+B18</f>
         <v>0</v>
       </c>
       <c r="D18" s="44">
-        <v>71040</v>
+        <v>0</v>
       </c>
       <c r="E18" s="45" t="str">
         <f>E17+D18</f>
@@ -2361,7 +2361,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2373,21 +2373,21 @@
         <v>33</v>
       </c>
       <c r="B19" s="44">
-        <v>2960</v>
+        <v>0</v>
       </c>
       <c r="C19" s="45" t="str">
         <f>C18+B19</f>
         <v>0</v>
       </c>
       <c r="D19" s="44">
-        <v>81030</v>
+        <v>0</v>
       </c>
       <c r="E19" s="45" t="str">
         <f>E18+D19</f>
         <v>0</v>
       </c>
       <c r="F19" s="44">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G19" s="45" t="str">
         <f>F19+G18</f>
@@ -2421,7 +2421,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2433,21 +2433,21 @@
         <v>34</v>
       </c>
       <c r="B20" s="44">
-        <v>2220</v>
+        <v>1560</v>
       </c>
       <c r="C20" s="45" t="str">
         <f>C19+B20</f>
         <v>0</v>
       </c>
       <c r="D20" s="44">
-        <v>39590</v>
+        <v>0</v>
       </c>
       <c r="E20" s="45" t="str">
         <f>E19+D20</f>
         <v>0</v>
       </c>
       <c r="F20" s="44">
-        <v>1480</v>
+        <v>780</v>
       </c>
       <c r="G20" s="45" t="str">
         <f>F20+G19</f>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2496,21 +2496,21 @@
         <v>35</v>
       </c>
       <c r="B21" s="44">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="C21" s="45" t="str">
         <f>C20+B21</f>
         <v>0</v>
       </c>
       <c r="D21" s="44">
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>E20+D21</f>
         <v>0</v>
       </c>
       <c r="F21" s="44">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G21" s="45" t="str">
         <f>F21+G20</f>
@@ -2544,7 +2544,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2556,14 +2556,14 @@
         <v>36</v>
       </c>
       <c r="B22" s="44">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="C22" s="45" t="str">
         <f>C21+B22</f>
         <v>0</v>
       </c>
       <c r="D22" s="44">
-        <v>54760</v>
+        <v>0</v>
       </c>
       <c r="E22" s="45" t="str">
         <f>E21+D22</f>
@@ -2604,7 +2604,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="47">
-        <v>41070</v>
+        <v>0</v>
       </c>
       <c r="E23" s="49" t="str">
         <f>E22+D23</f>
@@ -2667,16 +2667,16 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" customHeight="1" ht="33.75">
+    <row r="26" spans="1:20" customHeight="1" ht="33.75" hidden="true">
       <c r="A26" s="107">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
@@ -2697,7 +2697,7 @@
       <c r="R26" s="107"/>
       <c r="S26" s="107"/>
     </row>
-    <row r="27" spans="1:20" customHeight="1" ht="33.75" s="80" customFormat="1">
+    <row r="27" spans="1:20" customHeight="1" ht="33.75" hidden="true" s="80" customFormat="1">
       <c r="A27" s="79"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83"/>
@@ -2718,7 +2718,7 @@
       <c r="R27" s="79"/>
       <c r="S27" s="79"/>
     </row>
-    <row r="28" spans="1:20" customHeight="1" ht="36">
+    <row r="28" spans="1:20" customHeight="1" ht="36" hidden="true">
       <c r="A28" s="8"/>
       <c r="B28" s="92" t="s">
         <v>6</v>
@@ -2741,7 +2741,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:20" customHeight="1" ht="26.25">
+    <row r="29" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A29" s="11"/>
       <c r="B29" s="95" t="s">
         <v>7</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="S29" s="106"/>
     </row>
-    <row r="30" spans="1:20" customHeight="1" ht="18.75">
+    <row r="30" spans="1:20" customHeight="1" ht="18.75" hidden="true">
       <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customHeight="1" ht="19.5">
+    <row r="31" spans="1:20" customHeight="1" ht="19.5" hidden="true">
       <c r="A31" s="27" t="s">
         <v>18</v>
       </c>
@@ -2882,26 +2882,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:20" customHeight="1" ht="25.5">
+    <row r="32" spans="1:20" customHeight="1" ht="25.5" hidden="true">
       <c r="A32" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="41">
-        <v>68010</v>
+        <v>0</v>
       </c>
       <c r="C32" s="42" t="str">
         <f>B32</f>
         <v>0</v>
       </c>
       <c r="D32" s="41">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="43" t="str">
         <f>D32</f>
         <v>0</v>
       </c>
       <c r="F32" s="41">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="G32" s="42" t="str">
         <f>F32</f>
@@ -2935,33 +2935,33 @@
       <c r="P32" s="58"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="60">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S32" s="61" t="str">
         <f>R32/K32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" customHeight="1" ht="26.25">
+    <row r="33" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A33" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="44">
-        <v>79930</v>
+        <v>0</v>
       </c>
       <c r="C33" s="45" t="str">
         <f>C32+B33</f>
         <v>0</v>
       </c>
       <c r="D33" s="46">
-        <v>8186</v>
+        <v>0</v>
       </c>
       <c r="E33" s="45" t="str">
         <f>E32+D33</f>
         <v>0</v>
       </c>
       <c r="F33" s="44">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G33" s="45" t="str">
         <f>F33+G32</f>
@@ -2995,26 +2995,26 @@
       <c r="P33" s="66"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S33" s="65" t="str">
         <f>R33/K33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" customHeight="1" ht="26.25">
+    <row r="34" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A34" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="44">
-        <v>69140</v>
+        <v>0</v>
       </c>
       <c r="C34" s="45" t="str">
         <f>C33+B34</f>
         <v>0</v>
       </c>
       <c r="D34" s="46">
-        <v>5820</v>
+        <v>0</v>
       </c>
       <c r="E34" s="45" t="str">
         <f>E33+D34</f>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="Q34" s="69"/>
       <c r="R34" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S34" s="65" t="str">
         <f>R34/K34</f>
@@ -3070,21 +3070,21 @@
         <v>41</v>
       </c>
       <c r="B35" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="C35" s="45" t="str">
         <f>C34+B35</f>
         <v>0</v>
       </c>
       <c r="D35" s="46">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="E35" s="45" t="str">
         <f>E34+D35</f>
         <v>0</v>
       </c>
       <c r="F35" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="G35" s="45" t="str">
         <f>F35+G34</f>
@@ -3118,7 +3118,7 @@
       <c r="P35" s="66"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S35" s="65" t="str">
         <f>R35/K35</f>
@@ -3130,14 +3130,14 @@
         <v>42</v>
       </c>
       <c r="B36" s="44">
-        <v>10140</v>
+        <v>0</v>
       </c>
       <c r="C36" s="45" t="str">
         <f>C35+B36</f>
         <v>0</v>
       </c>
       <c r="D36" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E36" s="45" t="str">
         <f>E35+D36</f>
@@ -3178,7 +3178,7 @@
       <c r="P36" s="66"/>
       <c r="Q36" s="69"/>
       <c r="R36" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S36" s="65" t="str">
         <f>R36/K36</f>
@@ -3190,21 +3190,21 @@
         <v>43</v>
       </c>
       <c r="B37" s="44">
-        <v>2340</v>
+        <v>0</v>
       </c>
       <c r="C37" s="45" t="str">
         <f>C36+B37</f>
         <v>0</v>
       </c>
       <c r="D37" s="44">
-        <v>12168</v>
+        <v>0</v>
       </c>
       <c r="E37" s="45" t="str">
         <f>E36+D37</f>
         <v>0</v>
       </c>
       <c r="F37" s="44">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="G37" s="45" t="str">
         <f>F37+G36</f>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="Q37" s="69"/>
       <c r="R37" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S37" s="65" t="str">
         <f>R37/K37</f>
@@ -3301,7 +3301,7 @@
       <c r="P38" s="66"/>
       <c r="Q38" s="69"/>
       <c r="R38" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S38" s="65" t="str">
         <f>R38/K38</f>
@@ -3361,7 +3361,7 @@
       <c r="P39" s="66"/>
       <c r="Q39" s="69"/>
       <c r="R39" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S39" s="65" t="str">
         <f>R39/K39</f>
@@ -3380,14 +3380,14 @@
         <v>0</v>
       </c>
       <c r="D40" s="44">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="E40" s="45" t="str">
         <f>E39+D40</f>
         <v>0</v>
       </c>
       <c r="F40" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="G40" s="45" t="str">
         <f>F40+G39</f>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="Q40" s="70"/>
       <c r="R40" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S40" s="65" t="str">
         <f>R40/K40</f>
@@ -3484,7 +3484,7 @@
       <c r="P41" s="66"/>
       <c r="Q41" s="69"/>
       <c r="R41" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S41" s="65" t="str">
         <f>R41/K41</f>
@@ -3544,7 +3544,7 @@
       <c r="P42" s="66"/>
       <c r="Q42" s="69"/>
       <c r="R42" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S42" s="65" t="str">
         <f>R42/K42</f>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="Q43" s="69"/>
       <c r="R43" s="77">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S43" s="78" t="str">
         <f>R43/K43</f>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -121,7 +121,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>03/16/2016</t>
+    <t>03/31/2016</t>
   </si>
   <si>
     <t>International Business Partner Income From:</t>
@@ -2072,14 +2072,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>740</v>
+        <v>1480</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>17760</v>
+        <v>22200</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -121,7 +121,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>04/16/2016</t>
+    <t>06/16/2017</t>
   </si>
   <si>
     <t>International Business Partner Income From:</t>
@@ -184,42 +184,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>1/31/2016</t>
-  </si>
-  <si>
-    <t>2/28/2016</t>
-  </si>
-  <si>
-    <t>3/31/2016</t>
-  </si>
-  <si>
-    <t>4/30/2016</t>
-  </si>
-  <si>
-    <t>5/31/2016</t>
-  </si>
-  <si>
-    <t>6/30/2016</t>
-  </si>
-  <si>
-    <t>7/31/2016</t>
-  </si>
-  <si>
-    <t>8/30/2016</t>
-  </si>
-  <si>
-    <t>9/31/2016</t>
-  </si>
-  <si>
-    <t>10/30/2016</t>
-  </si>
-  <si>
-    <t>11/31/2016</t>
-  </si>
-  <si>
-    <t>12/30/2016</t>
-  </si>
-  <si>
     <t>1/31/2017</t>
   </si>
   <si>
@@ -254,6 +218,42 @@
   </si>
   <si>
     <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>1/31/2018</t>
+  </si>
+  <si>
+    <t>2/28/2018</t>
+  </si>
+  <si>
+    <t>3/31/2018</t>
+  </si>
+  <si>
+    <t>4/30/2018</t>
+  </si>
+  <si>
+    <t>5/31/2018</t>
+  </si>
+  <si>
+    <t>6/30/2018</t>
+  </si>
+  <si>
+    <t>7/31/2018</t>
+  </si>
+  <si>
+    <t>8/30/2018</t>
+  </si>
+  <si>
+    <t>9/31/2018</t>
+  </si>
+  <si>
+    <t>10/30/2018</t>
+  </si>
+  <si>
+    <t>11/31/2018</t>
+  </si>
+  <si>
+    <t>12/30/2018</t>
   </si>
   <si>
     <r>
@@ -1952,14 +1952,14 @@
         <v>27</v>
       </c>
       <c r="B12" s="41">
-        <v>1560</v>
+        <v>3740</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>71040</v>
+        <v>68010</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
@@ -2000,7 +2000,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2012,14 +2012,14 @@
         <v>28</v>
       </c>
       <c r="B13" s="44">
-        <v>740</v>
+        <v>12626</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>52170</v>
+        <v>79930</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
@@ -2060,7 +2060,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2072,14 +2072,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>1480</v>
+        <v>7340</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>22200</v>
+        <v>69140</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2135,14 +2135,14 @@
         <v>30</v>
       </c>
       <c r="B15" s="44">
-        <v>3740</v>
+        <v>3040</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>31820</v>
+        <v>780</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
@@ -2183,7 +2183,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2195,14 +2195,14 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>0</v>
+        <v>10140</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
@@ -2243,7 +2243,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2255,14 +2255,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>0</v>
+        <v>11388</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2366,7 +2366,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2426,7 +2426,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2549,7 +2549,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2609,7 +2609,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>740</v>
+        <v>1638</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="26" spans="1:20" customHeight="1" ht="33.75">
       <c r="A26" s="107">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -339,64 +339,13 @@
     <t>Forum Leaders</t>
   </si>
   <si>
-    <t>PE-01-01</t>
+    <t>Grupo 123</t>
   </si>
   <si>
-    <t>MANOLO VEGA</t>
+    <t>FORUM LEADER</t>
   </si>
   <si>
-    <t>PE-01-02</t>
-  </si>
-  <si>
-    <t>PE-01-03</t>
-  </si>
-  <si>
-    <t>JULIO NORIEGA</t>
-  </si>
-  <si>
-    <t>PE-01-04</t>
-  </si>
-  <si>
-    <t>FELIPE DEL RIO</t>
-  </si>
-  <si>
-    <t>PE-01-05</t>
-  </si>
-  <si>
-    <t>JACKIE SAETTONE</t>
-  </si>
-  <si>
-    <t>PE-01-06</t>
-  </si>
-  <si>
-    <t>PE-01-07</t>
-  </si>
-  <si>
-    <t>MARTIN REAñO</t>
-  </si>
-  <si>
-    <t>PE-01-08</t>
-  </si>
-  <si>
-    <t>PE-01-09</t>
-  </si>
-  <si>
-    <t>PE-01-10</t>
-  </si>
-  <si>
-    <t>OMAR GOYENECHEA</t>
-  </si>
-  <si>
-    <t>PE-01-K1</t>
-  </si>
-  <si>
-    <t>DIEGO GONZALEZ</t>
-  </si>
-  <si>
-    <t>PE-01-SP1</t>
-  </si>
-  <si>
-    <t>SUSANA LUNA</t>
+    <t>EC-02-01</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1542,7 @@
   <dimension ref="A1:T542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,14 +1901,14 @@
         <v>27</v>
       </c>
       <c r="B12" s="41">
-        <v>3740</v>
+        <v>0</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>68010</v>
+        <v>0</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
@@ -2000,7 +1949,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2012,14 +1961,14 @@
         <v>28</v>
       </c>
       <c r="B13" s="44">
-        <v>12626</v>
+        <v>0</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>79930</v>
+        <v>0</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
@@ -2060,7 +2009,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2072,14 +2021,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>7340</v>
+        <v>0</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>69140</v>
+        <v>0</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2123,7 +2072,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2135,14 +2084,14 @@
         <v>30</v>
       </c>
       <c r="B15" s="44">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
@@ -2183,7 +2132,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2195,14 +2144,14 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>10140</v>
+        <v>0</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
@@ -2243,7 +2192,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2255,14 +2204,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>11388</v>
+        <v>780</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>2340</v>
+        <v>0</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
@@ -2306,7 +2255,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2366,7 +2315,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2426,7 +2375,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2489,7 +2438,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2549,7 +2498,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2609,7 +2558,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2672,7 +2621,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -3748,94 +3697,54 @@
       <c r="C51" s="113"/>
     </row>
     <row r="52" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A52" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="113"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
     </row>
     <row r="53" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A53" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="113"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
     </row>
     <row r="54" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A54" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="113"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
     </row>
     <row r="55" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A55" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="113"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
     </row>
     <row r="56" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A56" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="113"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A57" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="113"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A58" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="113"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
     </row>
     <row r="59" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A59" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="113"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
     </row>
     <row r="60" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A60" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="113"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="61" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A61" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="113"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
     </row>
     <row r="62" spans="1:20" customHeight="1" ht="18.75">
       <c r="A62" s="81"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>Forum Leaders</t>
+  </si>
+  <si>
+    <t>PE-01-11</t>
+  </si>
+  <si>
+    <t>FORUM LEADER</t>
   </si>
   <si>
     <t>PE-01-01</t>
@@ -1593,7 +1599,7 @@
   <dimension ref="A1:T542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3743,16 +3749,16 @@
         <v>56</v>
       </c>
       <c r="B51" s="112" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="113"/>
     </row>
     <row r="52" spans="1:20" customHeight="1" ht="18.75">
       <c r="A52" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="112" t="s">
         <v>57</v>
-      </c>
-      <c r="B52" s="112" t="s">
-        <v>58</v>
       </c>
       <c r="C52" s="113"/>
     </row>
@@ -3779,16 +3785,16 @@
         <v>63</v>
       </c>
       <c r="B55" s="112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="113"/>
     </row>
     <row r="56" spans="1:20" customHeight="1" ht="18.75">
       <c r="A56" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="112" t="s">
         <v>64</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>65</v>
       </c>
       <c r="C56" s="113"/>
     </row>
@@ -3797,25 +3803,25 @@
         <v>66</v>
       </c>
       <c r="B57" s="112" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="113"/>
     </row>
     <row r="58" spans="1:20" customHeight="1" ht="18.75">
       <c r="A58" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="112" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>62</v>
       </c>
       <c r="C58" s="113"/>
     </row>
     <row r="59" spans="1:20" customHeight="1" ht="18.75">
       <c r="A59" s="109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C59" s="113"/>
     </row>
@@ -3838,9 +3844,13 @@
       <c r="C61" s="113"/>
     </row>
     <row r="62" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A62" s="81"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
+      <c r="A62" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="113"/>
     </row>
     <row r="63" spans="1:20" customHeight="1" ht="18.75">
       <c r="A63" s="81"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -109,13 +109,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>GROSS REVENUE REPORT FOR:  (RODOLFO BAQUERIZO)</t>
+    <t>GROSS REVENUE REPORT FOR:  (MANOLO VEGA)</t>
   </si>
   <si>
     <t xml:space="preserve">International Business Partner (IBP) Report - </t>
   </si>
   <si>
-    <t>RODOLFO BAQUERIZO</t>
+    <t>MANOLO VEGA</t>
   </si>
   <si>
     <t>Reflects "Received Revenues" thru:</t>
@@ -339,70 +339,73 @@
     <t>Forum Leaders</t>
   </si>
   <si>
+    <t>PE-01-01</t>
+  </si>
+  <si>
+    <t>PE-01-02</t>
+  </si>
+  <si>
+    <t>PE-01-03</t>
+  </si>
+  <si>
+    <t>JULIO NORIEGA</t>
+  </si>
+  <si>
+    <t>PE-01-04</t>
+  </si>
+  <si>
+    <t>FELIPE DEL RIO</t>
+  </si>
+  <si>
+    <t>PE-01-05</t>
+  </si>
+  <si>
+    <t>JACKIE SAETTONE</t>
+  </si>
+  <si>
+    <t>PE-01-06</t>
+  </si>
+  <si>
+    <t>PE-01-07</t>
+  </si>
+  <si>
+    <t>MARTIN REAñO</t>
+  </si>
+  <si>
+    <t>PE-01-08</t>
+  </si>
+  <si>
+    <t>PE-01-09</t>
+  </si>
+  <si>
+    <t>PE-01-10</t>
+  </si>
+  <si>
+    <t>OMAR GOYENECHEA</t>
+  </si>
+  <si>
+    <t>PE-01-K1</t>
+  </si>
+  <si>
+    <t>DIEGO GONZALEZ</t>
+  </si>
+  <si>
+    <t>PE-01-SP1</t>
+  </si>
+  <si>
+    <t>SUSANA LUNA</t>
+  </si>
+  <si>
     <t>PE-01-11</t>
   </si>
   <si>
-    <t>FORUM LEADER</t>
-  </si>
-  <si>
-    <t>PE-01-01</t>
-  </si>
-  <si>
-    <t>MANOLO VEGA</t>
-  </si>
-  <si>
-    <t>PE-01-02</t>
-  </si>
-  <si>
-    <t>PE-01-03</t>
-  </si>
-  <si>
-    <t>JULIO NORIEGA</t>
-  </si>
-  <si>
-    <t>PE-01-04</t>
-  </si>
-  <si>
-    <t>FELIPE DEL RIO</t>
-  </si>
-  <si>
-    <t>PE-01-05</t>
-  </si>
-  <si>
-    <t>JACKIE SAETTONE</t>
-  </si>
-  <si>
-    <t>PE-01-06</t>
-  </si>
-  <si>
-    <t>PE-01-07</t>
-  </si>
-  <si>
-    <t>MARTIN REAñO</t>
-  </si>
-  <si>
-    <t>PE-01-08</t>
-  </si>
-  <si>
-    <t>PE-01-09</t>
-  </si>
-  <si>
-    <t>PE-01-10</t>
-  </si>
-  <si>
-    <t>OMAR GOYENECHEA</t>
-  </si>
-  <si>
-    <t>PE-01-K1</t>
-  </si>
-  <si>
-    <t>DIEGO GONZALEZ</t>
-  </si>
-  <si>
-    <t>PE-01-SP1</t>
-  </si>
-  <si>
-    <t>SUSANA LUNA</t>
+    <t>MARTIN ASPILLAGA</t>
+  </si>
+  <si>
+    <t>PE-01-12</t>
+  </si>
+  <si>
+    <t>MAURICIO GONZALEZ</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1602,7 @@
   <dimension ref="A1:T542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1958,21 +1961,21 @@
         <v>27</v>
       </c>
       <c r="B12" s="41">
-        <v>3740</v>
+        <v>740</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>68010</v>
+        <v>75530</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="42" t="str">
         <f>F12</f>
@@ -2006,7 +2009,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2018,21 +2021,21 @@
         <v>28</v>
       </c>
       <c r="B13" s="44">
-        <v>12626</v>
+        <v>7640</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>79930</v>
+        <v>81740</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G13" s="45" t="str">
         <f>F13+G12</f>
@@ -2066,7 +2069,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2078,14 +2081,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>7340</v>
+        <v>4340</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>69140</v>
+        <v>76760</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2141,21 +2144,21 @@
         <v>30</v>
       </c>
       <c r="B15" s="44">
-        <v>3040</v>
+        <v>2300</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>780</v>
+        <v>122170</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="44">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="45" t="str">
         <f>F15+G14</f>
@@ -2189,7 +2192,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2201,21 +2204,21 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>1560</v>
+        <v>5460</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>10140</v>
+        <v>102190</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="44">
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="G16" s="45" t="str">
         <f>F16+G15</f>
@@ -2249,7 +2252,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2261,21 +2264,21 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>10608</v>
+        <v>780</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>2340</v>
+        <v>53080</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G17" s="45" t="str">
         <f>F17+G16</f>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2372,7 +2375,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2432,7 +2435,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2495,7 +2498,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2555,7 +2558,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2615,7 +2618,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>1638</v>
+        <v>780</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -3727,7 +3730,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C50" s="111"/>
       <c r="D50" s="39"/>
@@ -3746,16 +3749,16 @@
     </row>
     <row r="51" spans="1:20" customHeight="1" ht="18.75">
       <c r="A51" s="109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="112" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C51" s="113"/>
     </row>
     <row r="52" spans="1:20" customHeight="1" ht="18.75">
       <c r="A52" s="109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="112" t="s">
         <v>57</v>
@@ -3764,34 +3767,34 @@
     </row>
     <row r="53" spans="1:20" customHeight="1" ht="18.75">
       <c r="A53" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="112" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" s="112" t="s">
-        <v>60</v>
       </c>
       <c r="C53" s="113"/>
     </row>
     <row r="54" spans="1:20" customHeight="1" ht="18.75">
       <c r="A54" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="112" t="s">
         <v>61</v>
-      </c>
-      <c r="B54" s="112" t="s">
-        <v>62</v>
       </c>
       <c r="C54" s="113"/>
     </row>
     <row r="55" spans="1:20" customHeight="1" ht="18.75">
       <c r="A55" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="112" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="113"/>
     </row>
     <row r="56" spans="1:20" customHeight="1" ht="18.75">
       <c r="A56" s="109" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="112" t="s">
         <v>64</v>
@@ -3800,62 +3803,66 @@
     </row>
     <row r="57" spans="1:20" customHeight="1" ht="18.75">
       <c r="A57" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="112" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C57" s="113"/>
     </row>
     <row r="58" spans="1:20" customHeight="1" ht="18.75">
       <c r="A58" s="109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="112" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C58" s="113"/>
     </row>
     <row r="59" spans="1:20" customHeight="1" ht="18.75">
       <c r="A59" s="109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C59" s="113"/>
     </row>
     <row r="60" spans="1:20" customHeight="1" ht="18.75">
       <c r="A60" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="112" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="112" t="s">
-        <v>71</v>
       </c>
       <c r="C60" s="113"/>
     </row>
     <row r="61" spans="1:20" customHeight="1" ht="18.75">
       <c r="A61" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="112" t="s">
         <v>72</v>
-      </c>
-      <c r="B61" s="112" t="s">
-        <v>73</v>
       </c>
       <c r="C61" s="113"/>
     </row>
     <row r="62" spans="1:20" customHeight="1" ht="18.75">
       <c r="A62" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="C62" s="113"/>
+    </row>
+    <row r="63" spans="1:20" customHeight="1" ht="18.75">
+      <c r="A63" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="113"/>
-    </row>
-    <row r="63" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A63" s="81"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
+      <c r="B63" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="113"/>
     </row>
     <row r="64" spans="1:20" customHeight="1" ht="18.75">
       <c r="A64" s="81"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -2204,7 +2204,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>5460</v>
+        <v>4680</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="53">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L12" s="54" t="str">
         <f>IF(K12&gt;0,I12/K12,0)</f>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -184,42 +184,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>1/31/2017</t>
-  </si>
-  <si>
-    <t>2/28/2017</t>
-  </si>
-  <si>
-    <t>3/31/2017</t>
-  </si>
-  <si>
-    <t>4/30/2017</t>
-  </si>
-  <si>
-    <t>5/31/2017</t>
-  </si>
-  <si>
-    <t>6/30/2017</t>
-  </si>
-  <si>
-    <t>7/31/2017</t>
-  </si>
-  <si>
-    <t>8/30/2017</t>
-  </si>
-  <si>
-    <t>9/31/2017</t>
-  </si>
-  <si>
-    <t>10/30/2017</t>
-  </si>
-  <si>
-    <t>11/31/2017</t>
-  </si>
-  <si>
-    <t>12/30/2017</t>
-  </si>
-  <si>
     <t>1/31/2018</t>
   </si>
   <si>
@@ -254,6 +218,42 @@
   </si>
   <si>
     <t>12/30/2018</t>
+  </si>
+  <si>
+    <t>1/31/2019</t>
+  </si>
+  <si>
+    <t>2/28/2019</t>
+  </si>
+  <si>
+    <t>3/31/2019</t>
+  </si>
+  <si>
+    <t>4/30/2019</t>
+  </si>
+  <si>
+    <t>5/31/2019</t>
+  </si>
+  <si>
+    <t>6/30/2019</t>
+  </si>
+  <si>
+    <t>7/31/2019</t>
+  </si>
+  <si>
+    <t>8/30/2019</t>
+  </si>
+  <si>
+    <t>9/31/2019</t>
+  </si>
+  <si>
+    <t>10/30/2019</t>
+  </si>
+  <si>
+    <t>11/31/2019</t>
+  </si>
+  <si>
+    <t>12/30/2019</t>
   </si>
   <si>
     <r>
@@ -1961,21 +1961,21 @@
         <v>27</v>
       </c>
       <c r="B12" s="41">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>75530</v>
+        <v>0</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="41">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G12" s="42" t="str">
         <f>F12</f>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="53">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L12" s="54" t="str">
         <f>IF(K12&gt;0,I12/K12,0)</f>
@@ -2009,7 +2009,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2021,21 +2021,21 @@
         <v>28</v>
       </c>
       <c r="B13" s="44">
-        <v>7640</v>
+        <v>0</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>81740</v>
+        <v>0</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="44">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G13" s="45" t="str">
         <f>F13+G12</f>
@@ -2069,7 +2069,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2081,14 +2081,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>4340</v>
+        <v>0</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>76760</v>
+        <v>0</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2144,21 +2144,21 @@
         <v>30</v>
       </c>
       <c r="B15" s="44">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>122170</v>
+        <v>0</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="44">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G15" s="45" t="str">
         <f>F15+G14</f>
@@ -2192,7 +2192,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2204,21 +2204,21 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>4680</v>
+        <v>0</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>102190</v>
+        <v>0</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="44">
-        <v>1672</v>
+        <v>0</v>
       </c>
       <c r="G16" s="45" t="str">
         <f>F16+G15</f>
@@ -2252,7 +2252,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2264,21 +2264,21 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>53080</v>
+        <v>0</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="44">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G17" s="45" t="str">
         <f>F17+G16</f>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2375,7 +2375,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2435,7 +2435,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2558,7 +2558,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2618,7 +2618,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="26" spans="1:20" customHeight="1" ht="33.75">
       <c r="A26" s="107">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -121,7 +121,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>06/16/2017</t>
+    <t>12/31/2017</t>
   </si>
   <si>
     <t>International Business Partner Income From:</t>
@@ -184,6 +184,42 @@
     <t>USD</t>
   </si>
   <si>
+    <t>1/31/2017</t>
+  </si>
+  <si>
+    <t>2/28/2017</t>
+  </si>
+  <si>
+    <t>3/31/2017</t>
+  </si>
+  <si>
+    <t>4/30/2017</t>
+  </si>
+  <si>
+    <t>5/31/2017</t>
+  </si>
+  <si>
+    <t>6/30/2017</t>
+  </si>
+  <si>
+    <t>7/31/2017</t>
+  </si>
+  <si>
+    <t>8/30/2017</t>
+  </si>
+  <si>
+    <t>9/31/2017</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>11/31/2017</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
     <t>1/31/2018</t>
   </si>
   <si>
@@ -218,42 +254,6 @@
   </si>
   <si>
     <t>12/30/2018</t>
-  </si>
-  <si>
-    <t>1/31/2019</t>
-  </si>
-  <si>
-    <t>2/28/2019</t>
-  </si>
-  <si>
-    <t>3/31/2019</t>
-  </si>
-  <si>
-    <t>4/30/2019</t>
-  </si>
-  <si>
-    <t>5/31/2019</t>
-  </si>
-  <si>
-    <t>6/30/2019</t>
-  </si>
-  <si>
-    <t>7/31/2019</t>
-  </si>
-  <si>
-    <t>8/30/2019</t>
-  </si>
-  <si>
-    <t>9/31/2019</t>
-  </si>
-  <si>
-    <t>10/30/2019</t>
-  </si>
-  <si>
-    <t>11/31/2019</t>
-  </si>
-  <si>
-    <t>12/30/2019</t>
   </si>
   <si>
     <r>
@@ -1961,21 +1961,21 @@
         <v>27</v>
       </c>
       <c r="B12" s="41">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>0</v>
+        <v>75650</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="41">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="42" t="str">
         <f>F12</f>
@@ -2009,7 +2009,7 @@
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2021,21 +2021,21 @@
         <v>28</v>
       </c>
       <c r="B13" s="44">
-        <v>0</v>
+        <v>7640</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>0</v>
+        <v>81740</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G13" s="45" t="str">
         <f>F13+G12</f>
@@ -2069,7 +2069,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2081,14 +2081,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="44">
-        <v>0</v>
+        <v>4340</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>0</v>
+        <v>76760</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2144,21 +2144,21 @@
         <v>30</v>
       </c>
       <c r="B15" s="44">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>0</v>
+        <v>122170</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="44">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="45" t="str">
         <f>F15+G14</f>
@@ -2192,7 +2192,7 @@
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2204,21 +2204,21 @@
         <v>31</v>
       </c>
       <c r="B16" s="44">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>0</v>
+        <v>102190</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="44">
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="G16" s="45" t="str">
         <f>F16+G15</f>
@@ -2252,7 +2252,7 @@
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2264,21 +2264,21 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>0</v>
+        <v>61660</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G17" s="45" t="str">
         <f>F17+G16</f>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2327,21 +2327,21 @@
         <v>33</v>
       </c>
       <c r="B18" s="44">
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="C18" s="45" t="str">
         <f>C17+B18</f>
         <v>0</v>
       </c>
       <c r="D18" s="44">
-        <v>0</v>
+        <v>112880</v>
       </c>
       <c r="E18" s="45" t="str">
         <f>E17+D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="44">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="45" t="str">
         <f>F18+G17</f>
@@ -2375,7 +2375,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2387,14 +2387,14 @@
         <v>34</v>
       </c>
       <c r="B19" s="44">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="C19" s="45" t="str">
         <f>C18+B19</f>
         <v>0</v>
       </c>
       <c r="D19" s="44">
-        <v>0</v>
+        <v>99700</v>
       </c>
       <c r="E19" s="45" t="str">
         <f>E18+D19</f>
@@ -2435,7 +2435,7 @@
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2447,21 +2447,21 @@
         <v>35</v>
       </c>
       <c r="B20" s="44">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="C20" s="45" t="str">
         <f>C19+B20</f>
         <v>0</v>
       </c>
       <c r="D20" s="44">
-        <v>0</v>
+        <v>42740</v>
       </c>
       <c r="E20" s="45" t="str">
         <f>E19+D20</f>
         <v>0</v>
       </c>
       <c r="F20" s="44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G20" s="45" t="str">
         <f>F20+G19</f>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2510,21 +2510,21 @@
         <v>36</v>
       </c>
       <c r="B21" s="44">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="C21" s="45" t="str">
         <f>C20+B21</f>
         <v>0</v>
       </c>
       <c r="D21" s="44">
-        <v>0</v>
+        <v>139360</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>E20+D21</f>
         <v>0</v>
       </c>
       <c r="F21" s="44">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G21" s="45" t="str">
         <f>F21+G20</f>
@@ -2558,7 +2558,7 @@
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2618,7 +2618,7 @@
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="26" spans="1:20" customHeight="1" ht="33.75">
       <c r="A26" s="107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -121,7 +121,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>12/31/2017</t>
+    <t>06/16/2017</t>
   </si>
   <si>
     <t>International Business Partner Income From:</t>
@@ -2264,14 +2264,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="44">
-        <v>1560</v>
+        <v>780</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>61660</v>
+        <v>53080</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
@@ -2327,21 +2327,21 @@
         <v>33</v>
       </c>
       <c r="B18" s="44">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="C18" s="45" t="str">
         <f>C17+B18</f>
         <v>0</v>
       </c>
       <c r="D18" s="44">
-        <v>112880</v>
+        <v>0</v>
       </c>
       <c r="E18" s="45" t="str">
         <f>E17+D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="44">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G18" s="45" t="str">
         <f>F18+G17</f>
@@ -2387,14 +2387,14 @@
         <v>34</v>
       </c>
       <c r="B19" s="44">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="C19" s="45" t="str">
         <f>C18+B19</f>
         <v>0</v>
       </c>
       <c r="D19" s="44">
-        <v>99700</v>
+        <v>0</v>
       </c>
       <c r="E19" s="45" t="str">
         <f>E18+D19</f>
@@ -2447,21 +2447,21 @@
         <v>35</v>
       </c>
       <c r="B20" s="44">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="C20" s="45" t="str">
         <f>C19+B20</f>
         <v>0</v>
       </c>
       <c r="D20" s="44">
-        <v>42740</v>
+        <v>0</v>
       </c>
       <c r="E20" s="45" t="str">
         <f>E19+D20</f>
         <v>0</v>
       </c>
       <c r="F20" s="44">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G20" s="45" t="str">
         <f>F20+G19</f>
@@ -2510,21 +2510,21 @@
         <v>36</v>
       </c>
       <c r="B21" s="44">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="C21" s="45" t="str">
         <f>C20+B21</f>
         <v>0</v>
       </c>
       <c r="D21" s="44">
-        <v>139360</v>
+        <v>0</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>E20+D21</f>
         <v>0</v>
       </c>
       <c r="F21" s="44">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="G21" s="45" t="str">
         <f>F21+G20</f>

--- a/public_html/admin/reportesgenerados/Summary-87.xlsx
+++ b/public_html/admin/reportesgenerados/Summary-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -109,13 +109,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>GROSS REVENUE REPORT FOR:  (MANOLO VEGA)</t>
+    <t>GROSS REVENUE REPORT FOR:  ()</t>
   </si>
   <si>
     <t xml:space="preserve">International Business Partner (IBP) Report - </t>
-  </si>
-  <si>
-    <t>MANOLO VEGA</t>
   </si>
   <si>
     <t>Reflects "Received Revenues" thru:</t>
@@ -339,73 +336,10 @@
     <t>Forum Leaders</t>
   </si>
   <si>
-    <t>PE-01-01</t>
+    <t>MX-06-01</t>
   </si>
   <si>
-    <t>PE-01-02</t>
-  </si>
-  <si>
-    <t>PE-01-03</t>
-  </si>
-  <si>
-    <t>JULIO NORIEGA</t>
-  </si>
-  <si>
-    <t>PE-01-04</t>
-  </si>
-  <si>
-    <t>FELIPE DEL RIO</t>
-  </si>
-  <si>
-    <t>PE-01-05</t>
-  </si>
-  <si>
-    <t>JACKIE SAETTONE</t>
-  </si>
-  <si>
-    <t>PE-01-06</t>
-  </si>
-  <si>
-    <t>PE-01-07</t>
-  </si>
-  <si>
-    <t>MARTIN REAñO</t>
-  </si>
-  <si>
-    <t>PE-01-08</t>
-  </si>
-  <si>
-    <t>PE-01-09</t>
-  </si>
-  <si>
-    <t>PE-01-10</t>
-  </si>
-  <si>
-    <t>OMAR GOYENECHEA</t>
-  </si>
-  <si>
-    <t>PE-01-K1</t>
-  </si>
-  <si>
-    <t>DIEGO GONZALEZ</t>
-  </si>
-  <si>
-    <t>PE-01-SP1</t>
-  </si>
-  <si>
-    <t>SUSANA LUNA</t>
-  </si>
-  <si>
-    <t>PE-01-11</t>
-  </si>
-  <si>
-    <t>MARTIN ASPILLAGA</t>
-  </si>
-  <si>
-    <t>PE-01-12</t>
-  </si>
-  <si>
-    <t>MAURICIO GONZALEZ</t>
+    <t>GONZALO DE LA TORRE</t>
   </si>
 </sst>
 </file>
@@ -957,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1292,12 +1226,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1602,7 +1530,7 @@
   <dimension ref="A1:T542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1726,14 +1654,12 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="90" t="s">
-        <v>4</v>
-      </c>
+      <c r="E5" s="90"/>
       <c r="F5" s="90"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
@@ -1742,7 +1668,7 @@
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
       <c r="P5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1795,7 +1721,7 @@
     <row r="8" spans="1:20" customHeight="1" ht="36">
       <c r="A8" s="8"/>
       <c r="B8" s="92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
@@ -1818,164 +1744,164 @@
     <row r="9" spans="1:20" customHeight="1" ht="26.25">
       <c r="A9" s="11"/>
       <c r="B9" s="95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="97"/>
       <c r="F9" s="96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="12"/>
       <c r="I9" s="95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="97"/>
       <c r="K9" s="12"/>
       <c r="L9" s="95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="97"/>
       <c r="N9" s="12"/>
       <c r="O9" s="103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P9" s="104"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S9" s="106"/>
     </row>
     <row r="10" spans="1:20" customHeight="1" ht="18.75">
       <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:20" customHeight="1" ht="19.5">
       <c r="A11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="K11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>24</v>
       </c>
       <c r="Q11" s="24"/>
       <c r="R11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="35" t="s">
         <v>25</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:20" customHeight="1" ht="25.5">
       <c r="A12" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="41">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>75650</v>
+        <v>89352</v>
       </c>
       <c r="E12" s="43" t="str">
         <f>D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="41">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G12" s="42" t="str">
         <f>F12</f>
@@ -1991,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="53">
-        <v>1</v>
+        <v>21.05</v>
       </c>
       <c r="L12" s="54" t="str">
         <f>IF(K12&gt;0,I12/K12,0)</f>
@@ -2003,13 +1929,13 @@
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="57" t="str">
-        <f>L12*0.2</f>
+        <f>L12*0.18</f>
         <v>0</v>
       </c>
       <c r="P12" s="58"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="60">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S12" s="61" t="str">
         <f>R12/K12</f>
@@ -2018,24 +1944,24 @@
     </row>
     <row r="13" spans="1:20" customHeight="1" ht="26.25">
       <c r="A13" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="44">
-        <v>7640</v>
+        <v>0</v>
       </c>
       <c r="C13" s="45" t="str">
         <f>C12+B13</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>81740</v>
+        <v>89352</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>E12+D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="44">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G13" s="45" t="str">
         <f>F13+G12</f>
@@ -2051,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="62">
-        <v>1</v>
+        <v>20.3</v>
       </c>
       <c r="L13" s="63" t="str">
         <f>IF(K13&gt;0,I13/K13,0)</f>
@@ -2063,13 +1989,13 @@
       </c>
       <c r="N13" s="56"/>
       <c r="O13" s="65" t="str">
-        <f>L13*0.2</f>
+        <f>L13*0.18</f>
         <v>0</v>
       </c>
       <c r="P13" s="66"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S13" s="65" t="str">
         <f>R13/K13</f>
@@ -2078,17 +2004,17 @@
     </row>
     <row r="14" spans="1:20" customHeight="1" ht="26.25">
       <c r="A14" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="44">
-        <v>4340</v>
+        <v>0</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>C13+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>76760</v>
+        <v>89352</v>
       </c>
       <c r="E14" s="45" t="str">
         <f>E13+D14</f>
@@ -2111,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="62">
-        <v>1</v>
+        <v>19.05</v>
       </c>
       <c r="L14" s="63" t="str">
         <f>IF(K14&gt;0,I14/K14,0)</f>
@@ -2123,7 +2049,7 @@
       </c>
       <c r="N14" s="56"/>
       <c r="O14" s="65" t="str">
-        <f>L14*0.2</f>
+        <f>L14*0.18</f>
         <v>0</v>
       </c>
       <c r="P14" s="68" t="str">
@@ -2132,7 +2058,7 @@
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S14" s="65" t="str">
         <f>R14/K14</f>
@@ -2141,24 +2067,24 @@
     </row>
     <row r="15" spans="1:20" customHeight="1" ht="25.5">
       <c r="A15" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="44">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>C14+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>122170</v>
+        <v>111252</v>
       </c>
       <c r="E15" s="45" t="str">
         <f>E14+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="44">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G15" s="45" t="str">
         <f>F15+G14</f>
@@ -2174,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="62">
-        <v>1</v>
+        <v>18.8172</v>
       </c>
       <c r="L15" s="63" t="str">
         <f>IF(K15&gt;0,I15/K15,0)</f>
@@ -2186,13 +2112,13 @@
       </c>
       <c r="N15" s="56"/>
       <c r="O15" s="65" t="str">
-        <f>L15*0.2</f>
+        <f>L15*0.18</f>
         <v>0</v>
       </c>
       <c r="P15" s="66"/>
       <c r="Q15" s="69"/>
       <c r="R15" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S15" s="65" t="str">
         <f>R15/K15</f>
@@ -2201,24 +2127,24 @@
     </row>
     <row r="16" spans="1:20" customHeight="1" ht="26.25">
       <c r="A16" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="44">
-        <v>4680</v>
+        <v>0</v>
       </c>
       <c r="C16" s="45" t="str">
         <f>C15+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="44">
-        <v>102190</v>
+        <v>133152</v>
       </c>
       <c r="E16" s="45" t="str">
         <f>E15+D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="44">
-        <v>1672</v>
+        <v>0</v>
       </c>
       <c r="G16" s="45" t="str">
         <f>F16+G15</f>
@@ -2234,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="53">
-        <v>1</v>
+        <v>18.6185</v>
       </c>
       <c r="L16" s="63" t="str">
         <f>IF(K16&gt;0,I16/K16,0)</f>
@@ -2246,13 +2172,13 @@
       </c>
       <c r="N16" s="56"/>
       <c r="O16" s="65" t="str">
-        <f>L16*0.2</f>
+        <f>L16*0.18</f>
         <v>0</v>
       </c>
       <c r="P16" s="66"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S16" s="65" t="str">
         <f>R16/K16</f>
@@ -2261,24 +2187,24 @@
     </row>
     <row r="17" spans="1:20" customHeight="1" ht="26.25">
       <c r="A17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="44">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>C16+B17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
-        <v>53080</v>
+        <v>67452</v>
       </c>
       <c r="E17" s="45" t="str">
         <f>E16+D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="44">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G17" s="45" t="str">
         <f>F17+G16</f>
@@ -2294,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="62">
-        <v>1</v>
+        <v>18.6</v>
       </c>
       <c r="L17" s="63" t="str">
         <f>IF(K17&gt;0,I17/K17,0)</f>
@@ -2306,7 +2232,7 @@
       </c>
       <c r="N17" s="56"/>
       <c r="O17" s="65" t="str">
-        <f>L17*0.2</f>
+        <f>L17*0.18</f>
         <v>0</v>
       </c>
       <c r="P17" s="68" t="str">
@@ -2315,7 +2241,7 @@
       </c>
       <c r="Q17" s="69"/>
       <c r="R17" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S17" s="65" t="str">
         <f>R17/K17</f>
@@ -2324,7 +2250,7 @@
     </row>
     <row r="18" spans="1:20" customHeight="1" ht="25.5">
       <c r="A18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="44">
         <v>0</v>
@@ -2357,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="62">
-        <v>1</v>
+        <v>18.2</v>
       </c>
       <c r="L18" s="63" t="str">
         <f>IF(K18&gt;0,I18/K18,0)</f>
@@ -2369,13 +2295,13 @@
       </c>
       <c r="N18" s="56"/>
       <c r="O18" s="65" t="str">
-        <f>L18*0.2</f>
+        <f>L18*0.18</f>
         <v>0</v>
       </c>
       <c r="P18" s="66"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S18" s="65" t="str">
         <f>R18/K18</f>
@@ -2384,7 +2310,7 @@
     </row>
     <row r="19" spans="1:20" customHeight="1" ht="26.25">
       <c r="A19" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="44">
         <v>0</v>
@@ -2417,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="62">
-        <v>1</v>
+        <v>18.1</v>
       </c>
       <c r="L19" s="63" t="str">
         <f>IF(K19&gt;0,I19/K19,0)</f>
@@ -2429,13 +2355,13 @@
       </c>
       <c r="N19" s="56"/>
       <c r="O19" s="65" t="str">
-        <f>L19*0.2</f>
+        <f>L19*0.18</f>
         <v>0</v>
       </c>
       <c r="P19" s="66"/>
       <c r="Q19" s="69"/>
       <c r="R19" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S19" s="65" t="str">
         <f>R19/K19</f>
@@ -2444,7 +2370,7 @@
     </row>
     <row r="20" spans="1:20" customHeight="1" ht="26.25">
       <c r="A20" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="44">
         <v>0</v>
@@ -2477,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="62">
-        <v>1</v>
+        <v>18.5</v>
       </c>
       <c r="L20" s="63" t="str">
         <f>IF(K20&gt;0,I20/K20,0)</f>
@@ -2489,7 +2415,7 @@
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="65" t="str">
-        <f>L20*0.2</f>
+        <f>L20*0.18</f>
         <v>0</v>
       </c>
       <c r="P20" s="68" t="str">
@@ -2498,7 +2424,7 @@
       </c>
       <c r="Q20" s="70"/>
       <c r="R20" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S20" s="65" t="str">
         <f>R20/K20</f>
@@ -2507,7 +2433,7 @@
     </row>
     <row r="21" spans="1:20" customHeight="1" ht="25.5">
       <c r="A21" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="44">
         <v>0</v>
@@ -2540,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="62">
-        <v>1</v>
+        <v>19.35</v>
       </c>
       <c r="L21" s="63" t="str">
         <f>IF(K21&gt;0,I21/K21,0)</f>
@@ -2552,13 +2478,13 @@
       </c>
       <c r="N21" s="56"/>
       <c r="O21" s="65" t="str">
-        <f>L21*0.2</f>
+        <f>L21*0.18</f>
         <v>0</v>
       </c>
       <c r="P21" s="66"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S21" s="65" t="str">
         <f>R21/K21</f>
@@ -2567,7 +2493,7 @@
     </row>
     <row r="22" spans="1:20" customHeight="1" ht="26.25">
       <c r="A22" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="44">
         <v>0</v>
@@ -2612,13 +2538,13 @@
       </c>
       <c r="N22" s="56"/>
       <c r="O22" s="65" t="str">
-        <f>L22*0.2</f>
+        <f>L22*0.18</f>
         <v>0</v>
       </c>
       <c r="P22" s="66"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="67">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S22" s="65" t="str">
         <f>R22/K22</f>
@@ -2627,7 +2553,7 @@
     </row>
     <row r="23" spans="1:20" customHeight="1" ht="26.25">
       <c r="A23" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="47">
         <v>0</v>
@@ -2672,7 +2598,7 @@
       </c>
       <c r="N23" s="56"/>
       <c r="O23" s="76" t="str">
-        <f>L23*0.2</f>
+        <f>L23*0.18</f>
         <v>0</v>
       </c>
       <c r="P23" s="68" t="str">
@@ -2681,7 +2607,7 @@
       </c>
       <c r="Q23" s="69"/>
       <c r="R23" s="77">
-        <v>780</v>
+        <v>10950</v>
       </c>
       <c r="S23" s="78" t="str">
         <f>R23/K23</f>
@@ -2735,7 +2661,7 @@
     <row r="28" spans="1:20" customHeight="1" ht="36">
       <c r="A28" s="8"/>
       <c r="B28" s="92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="93"/>
       <c r="D28" s="93"/>
@@ -2758,147 +2684,147 @@
     <row r="29" spans="1:20" customHeight="1" ht="26.25">
       <c r="A29" s="11"/>
       <c r="B29" s="95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="96"/>
       <c r="D29" s="95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="97"/>
       <c r="F29" s="96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="97"/>
       <c r="H29" s="12"/>
       <c r="I29" s="95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="12"/>
       <c r="L29" s="95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M29" s="97"/>
       <c r="N29" s="12"/>
       <c r="O29" s="103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P29" s="104"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S29" s="106"/>
     </row>
     <row r="30" spans="1:20" customHeight="1" ht="18.75">
       <c r="A30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="D30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="K30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="L30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="N30" s="21"/>
       <c r="O30" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:20" customHeight="1" ht="19.5">
       <c r="A31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="D31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="F31" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="K31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="31" t="s">
-        <v>22</v>
-      </c>
       <c r="L31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="N31" s="21"/>
       <c r="O31" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>24</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="35" t="s">
         <v>25</v>
-      </c>
-      <c r="S31" s="35" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:20" customHeight="1" ht="25.5">
       <c r="A32" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="41">
         <v>0</v>
@@ -2943,7 +2869,7 @@
       </c>
       <c r="N32" s="56"/>
       <c r="O32" s="57" t="str">
-        <f>L32*0.2</f>
+        <f>L32*0.18</f>
         <v>0</v>
       </c>
       <c r="P32" s="58"/>
@@ -2958,7 +2884,7 @@
     </row>
     <row r="33" spans="1:20" customHeight="1" ht="26.25">
       <c r="A33" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="44">
         <v>0</v>
@@ -3003,7 +2929,7 @@
       </c>
       <c r="N33" s="56"/>
       <c r="O33" s="65" t="str">
-        <f>L33*0.2</f>
+        <f>L33*0.18</f>
         <v>0</v>
       </c>
       <c r="P33" s="66"/>
@@ -3018,7 +2944,7 @@
     </row>
     <row r="34" spans="1:20" customHeight="1" ht="26.25">
       <c r="A34" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="44">
         <v>0</v>
@@ -3063,7 +2989,7 @@
       </c>
       <c r="N34" s="56"/>
       <c r="O34" s="65" t="str">
-        <f>L34*0.2</f>
+        <f>L34*0.18</f>
         <v>0</v>
       </c>
       <c r="P34" s="68" t="str">
@@ -3081,7 +3007,7 @@
     </row>
     <row r="35" spans="1:20" customHeight="1" ht="25.5">
       <c r="A35" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="44">
         <v>0</v>
@@ -3126,7 +3052,7 @@
       </c>
       <c r="N35" s="56"/>
       <c r="O35" s="65" t="str">
-        <f>L35*0.2</f>
+        <f>L35*0.18</f>
         <v>0</v>
       </c>
       <c r="P35" s="66"/>
@@ -3141,7 +3067,7 @@
     </row>
     <row r="36" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A36" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="44">
         <v>0</v>
@@ -3186,7 +3112,7 @@
       </c>
       <c r="N36" s="56"/>
       <c r="O36" s="65" t="str">
-        <f>L36*0.2</f>
+        <f>L36*0.18</f>
         <v>0</v>
       </c>
       <c r="P36" s="66"/>
@@ -3201,7 +3127,7 @@
     </row>
     <row r="37" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A37" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="44">
         <v>0</v>
@@ -3246,7 +3172,7 @@
       </c>
       <c r="N37" s="56"/>
       <c r="O37" s="65" t="str">
-        <f>L37*0.2</f>
+        <f>L37*0.18</f>
         <v>0</v>
       </c>
       <c r="P37" s="68" t="str">
@@ -3264,7 +3190,7 @@
     </row>
     <row r="38" spans="1:20" customHeight="1" ht="25.5" hidden="true">
       <c r="A38" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="44">
         <v>0</v>
@@ -3309,7 +3235,7 @@
       </c>
       <c r="N38" s="56"/>
       <c r="O38" s="65" t="str">
-        <f>L38*0.2</f>
+        <f>L38*0.18</f>
         <v>0</v>
       </c>
       <c r="P38" s="66"/>
@@ -3324,7 +3250,7 @@
     </row>
     <row r="39" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A39" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="44">
         <v>0</v>
@@ -3369,7 +3295,7 @@
       </c>
       <c r="N39" s="56"/>
       <c r="O39" s="65" t="str">
-        <f>L39*0.2</f>
+        <f>L39*0.18</f>
         <v>0</v>
       </c>
       <c r="P39" s="66"/>
@@ -3384,7 +3310,7 @@
     </row>
     <row r="40" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A40" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="44">
         <v>0</v>
@@ -3429,7 +3355,7 @@
       </c>
       <c r="N40" s="56"/>
       <c r="O40" s="65" t="str">
-        <f>L40*0.2</f>
+        <f>L40*0.18</f>
         <v>0</v>
       </c>
       <c r="P40" s="68" t="str">
@@ -3447,7 +3373,7 @@
     </row>
     <row r="41" spans="1:20" customHeight="1" ht="25.5" hidden="true">
       <c r="A41" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="44">
         <v>0</v>
@@ -3492,7 +3418,7 @@
       </c>
       <c r="N41" s="56"/>
       <c r="O41" s="65" t="str">
-        <f>L41*0.2</f>
+        <f>L41*0.18</f>
         <v>0</v>
       </c>
       <c r="P41" s="66"/>
@@ -3507,7 +3433,7 @@
     </row>
     <row r="42" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A42" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="44">
         <v>0</v>
@@ -3552,7 +3478,7 @@
       </c>
       <c r="N42" s="56"/>
       <c r="O42" s="65" t="str">
-        <f>L42*0.2</f>
+        <f>L42*0.18</f>
         <v>0</v>
       </c>
       <c r="P42" s="66"/>
@@ -3567,7 +3493,7 @@
     </row>
     <row r="43" spans="1:20" customHeight="1" ht="26.25" hidden="true">
       <c r="A43" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="47">
         <v>0</v>
@@ -3612,7 +3538,7 @@
       </c>
       <c r="N43" s="56"/>
       <c r="O43" s="76" t="str">
-        <f>L43*0.2</f>
+        <f>L43*0.18</f>
         <v>0</v>
       </c>
       <c r="P43" s="68" t="str">
@@ -3631,7 +3557,7 @@
     <row r="44" spans="1:20" hidden="true"/>
     <row r="45" spans="1:20">
       <c r="A45" s="98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="98"/>
       <c r="C45" s="98"/>
@@ -3651,7 +3577,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="99"/>
       <c r="C46" s="99"/>
@@ -3707,7 +3633,7 @@
     </row>
     <row r="49" spans="1:20" customHeight="1" ht="24">
       <c r="A49" s="100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="101"/>
       <c r="C49" s="102"/>
@@ -3727,10 +3653,10 @@
     </row>
     <row r="50" spans="1:20" customHeight="1" ht="18.75">
       <c r="A50" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="110" t="s">
         <v>54</v>
-      </c>
-      <c r="B50" s="110" t="s">
-        <v>4</v>
       </c>
       <c r="C50" s="111"/>
       <c r="D50" s="39"/>
@@ -3748,121 +3674,69 @@
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A51" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="113"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
     </row>
     <row r="52" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A52" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="113"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
     </row>
     <row r="53" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A53" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="113"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
     </row>
     <row r="54" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A54" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="113"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
     </row>
     <row r="55" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A55" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="113"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
     </row>
     <row r="56" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A56" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="113"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A57" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="113"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A58" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="113"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
     </row>
     <row r="59" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A59" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="113"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
     </row>
     <row r="60" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A60" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="113"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="61" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A61" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="113"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
     </row>
     <row r="62" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A62" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="113"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
     </row>
     <row r="63" spans="1:20" customHeight="1" ht="18.75">
-      <c r="A63" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="113"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
     </row>
     <row r="64" spans="1:20" customHeight="1" ht="18.75">
       <c r="A64" s="81"/>
